--- a/biology/Zoologie/Anteos_menippe/Anteos_menippe.xlsx
+++ b/biology/Zoologie/Anteos_menippe/Anteos_menippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anteos menippe est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Anteos.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anteos menippe a été décrit par Jacob Hübner en 1818 sous le nom de Mancipium menippe.
-Synonymes : Colias leachiana Godart, 1819; Rhodocera menippe metioche Fruhstorfer, 1907[1];
-Nom vernaculaire
-Eurema menippe se nomme Great Orange tip ou Orange-tipped Angled Sulphuren anglais [2].
+Synonymes : Colias leachiana Godart, 1819; Rhodocera menippe metioche Fruhstorfer, 1907;
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema menippe est un papillon assez grand avec une envergure variant de 80 mm à 90 mm, jaune clair à l'apex des ailes antérieures pointu largement marqué d'orange (parfois orange rose) bordé de marron avec un point discal marron aux antérieures. Le revers est jaune pâle à vert pâle avec un point discal rose aux antérieures et aux postérieures[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema menippe se nomme Great Orange tip ou Orange-tipped Angled Sulphuren anglais .
 </t>
         </is>
       </c>
@@ -573,14 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est un migrateur le long des fleuves.
-Période de vol
-Plantes-hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema menippe est un papillon assez grand avec une envergure variant de 80 mm à 90 mm, jaune clair à l'apex des ailes antérieures pointu largement marqué d'orange (parfois orange rose) bordé de marron avec un point discal marron aux antérieures. Le revers est jaune pâle à vert pâle avec un point discal rose aux antérieures et aux postérieures.
+</t>
         </is>
       </c>
     </row>
@@ -605,16 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur le long des fleuves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema menippe est présent en Amérique centrale et en Amérique du Sud, en Guyane, au Mexique, en Colombie, au Brésil et au Pérou.
-Biotope
-Il réside sur les rives des cours d'eau[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur les rives des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_menippe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
